--- a/methods/correspondences.xlsx
+++ b/methods/correspondences.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/car587/work/lgpccofog-linkset/methods/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/lgpccofog-linkset/methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356BEFA-112A-4241-B5B3-1637673A124A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0579A6-8D02-854E-886D-4861C0B5F490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{9FAB42F5-BF6B-D545-B2B6-1AC7BDBF1478}"/>
+    <workbookView xWindow="19340" yWindow="460" windowWidth="17280" windowHeight="20740" activeTab="1" xr2:uid="{9FAB42F5-BF6B-D545-B2B6-1AC7BDBF1478}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Working" sheetId="1" r:id="rId1"/>
+    <sheet name="Just links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="345">
   <si>
     <t>LGPC</t>
   </si>
@@ -598,13 +605,475 @@
   </si>
   <si>
     <t>0860</t>
+  </si>
+  <si>
+    <t>0850</t>
+  </si>
+  <si>
+    <t>0911</t>
+  </si>
+  <si>
+    <t>0950</t>
+  </si>
+  <si>
+    <t>0970</t>
+  </si>
+  <si>
+    <t>0980</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>skos:exactMatch</t>
+  </si>
+  <si>
+    <t>skos:narrowMatch</t>
+  </si>
+  <si>
+    <t>skos:broadMatch</t>
+  </si>
+  <si>
+    <t>lgpc:01 skos:exactMatch cofog:01 .</t>
+  </si>
+  <si>
+    <t>lgpc:0111 skos:exactMatch cofog:0111 .</t>
+  </si>
+  <si>
+    <t>lgpc:0112 skos:exactMatch cofog:0112 .</t>
+  </si>
+  <si>
+    <t>lgpc:0120 skos:exactMatch cofog:0170 .</t>
+  </si>
+  <si>
+    <t>lgpc:0130 skos:exactMatch cofog:0180 .</t>
+  </si>
+  <si>
+    <t>lgpc:0190 skos:narrowMatch cofog:0131 .</t>
+  </si>
+  <si>
+    <t>lgpc:0190 skos:narrowMatch cofog:0132 .</t>
+  </si>
+  <si>
+    <t>lgpc:0190 skos:narrowMatch cofog:0133 .</t>
+  </si>
+  <si>
+    <t>lgpc:0190 skos:narrowMatch cofog:0140 .</t>
+  </si>
+  <si>
+    <t>lgpc:0190 skos:narrowMatch cofog:0150 .</t>
+  </si>
+  <si>
+    <t>lgpc:0190 skos:narrowMatch cofog:0160 .</t>
+  </si>
+  <si>
+    <t>lgpc:03 skos:exactMatch cofog:03 .</t>
+  </si>
+  <si>
+    <t>lgpc:0310 skos:exactMatch cofog:0320 .</t>
+  </si>
+  <si>
+    <t>lgpc:032 skos:narrowMatch cofog:0360 .</t>
+  </si>
+  <si>
+    <t>lgpc:0390 skos:narrowMatch cofog:0350 .</t>
+  </si>
+  <si>
+    <t>lgpc:0390 skos:narrowMatch cofog:0360 .</t>
+  </si>
+  <si>
+    <t>lgpc:04 skos:exactMatch cofog:04 .</t>
+  </si>
+  <si>
+    <t>lgpc:0411 skos:exactMatch cofog:0411 .</t>
+  </si>
+  <si>
+    <t>lgpc:0412 skos:exactMatch cofog:0412 .</t>
+  </si>
+  <si>
+    <t>lgpc:0421 skos:broadMatch cofog:0421 .</t>
+  </si>
+  <si>
+    <t>lgpc:0422 skos:broadMatch cofog:0421 .</t>
+  </si>
+  <si>
+    <t>lgpc:0431 skos:narrowMatch cofog:0432 .</t>
+  </si>
+  <si>
+    <t>lgpc:0439 skos:narrowMatch cofog:0431 .</t>
+  </si>
+  <si>
+    <t>lgpc:0439 skos:narrowMatch cofog:0432 .</t>
+  </si>
+  <si>
+    <t>lgpc:0439 skos:narrowMatch cofog:0433 .</t>
+  </si>
+  <si>
+    <t>lgpc:0439 skos:narrowMatch cofog:0434 .</t>
+  </si>
+  <si>
+    <t>lgpc:0439 skos:narrowMatch cofog:0436 .</t>
+  </si>
+  <si>
+    <t>lgpc:0441 skos:broadMatch cofog:0451 .</t>
+  </si>
+  <si>
+    <t>lgpc:0442 skos:broadMatch cofog:0451 .</t>
+  </si>
+  <si>
+    <t>lgpc:0443 skos:broadMatch cofog:0451 .</t>
+  </si>
+  <si>
+    <t>lgpc:0444 skos:broadMatch cofog:0451 .</t>
+  </si>
+  <si>
+    <t>lgpc:0445 skos:broadMatch cofog:0451 .</t>
+  </si>
+  <si>
+    <t>lgpc:0446 skos:broadMatch cofog:0451 .</t>
+  </si>
+  <si>
+    <t>lgpc:0449 skos:broadMatch cofog:0451 .</t>
+  </si>
+  <si>
+    <t>lgpc:0451 skos:exactMatch cofog:0452 .</t>
+  </si>
+  <si>
+    <t>lgpc:0452 skos:exactMatch cofog:0454 .</t>
+  </si>
+  <si>
+    <t>lgpc:0459 skos:narrowMatch cofog:0453 .</t>
+  </si>
+  <si>
+    <t>lgpc:0459 skos:narrowMatch cofog:0455 .</t>
+  </si>
+  <si>
+    <t>lgpc:0461 skos:exactMatch cofog:0441 .</t>
+  </si>
+  <si>
+    <t>lgpc:0462 skos:exactMatch cofog:0443 .</t>
+  </si>
+  <si>
+    <t>lgpc:0463 skos:exactMatch cofog:0471 .</t>
+  </si>
+  <si>
+    <t>lgpc:0464 skos:exactMatch cofog:0473 .</t>
+  </si>
+  <si>
+    <t>lgpc:0465 skos:exactMatch cofog:0474 .</t>
+  </si>
+  <si>
+    <t>lgpc:0469 skos:narrowMatch cofog:0423 .</t>
+  </si>
+  <si>
+    <t>lgpc:0469 skos:narrowMatch cofog:0442 .</t>
+  </si>
+  <si>
+    <t>lgpc:0469 skos:narrowMatch cofog:0460 .</t>
+  </si>
+  <si>
+    <t>lgpc:0469 skos:narrowMatch cofog:0472 .</t>
+  </si>
+  <si>
+    <t>lgpc:0490 skos:narrowMatch cofog:0481 .</t>
+  </si>
+  <si>
+    <t>lgpc:0490 skos:narrowMatch cofog:0482 .</t>
+  </si>
+  <si>
+    <t>lgpc:0490 skos:narrowMatch cofog:0483 .</t>
+  </si>
+  <si>
+    <t>lgpc:0490 skos:narrowMatch cofog:0484 .</t>
+  </si>
+  <si>
+    <t>lgpc:0490 skos:narrowMatch cofog:0485 .</t>
+  </si>
+  <si>
+    <t>lgpc:0490 skos:narrowMatch cofog:0486 .</t>
+  </si>
+  <si>
+    <t>lgpc:0490 skos:narrowMatch cofog:0487 .</t>
+  </si>
+  <si>
+    <t>lgpc:0490 skos:narrowMatch cofog:0490 .</t>
+  </si>
+  <si>
+    <t>lgpc:05 skos:exactMatch cofog:05 .</t>
+  </si>
+  <si>
+    <t>lgpc:0511 skos:broadMatch cofog:0510 .</t>
+  </si>
+  <si>
+    <t>lgpc:0519 skos:broadMatch cofog:0510 .</t>
+  </si>
+  <si>
+    <t>lgpc:0521 skos:broadMatch cofog:0520 .</t>
+  </si>
+  <si>
+    <t>lgpc:0529 skos:broadMatch cofog:0520 .</t>
+  </si>
+  <si>
+    <t>lgpc:0530 skos:broadMatch cofog:0530 .</t>
+  </si>
+  <si>
+    <t>lgpc:0540 skos:exactMatch cofog:0540 .</t>
+  </si>
+  <si>
+    <t>lgpc:0551 skos:broadMatch cofog:0530 .</t>
+  </si>
+  <si>
+    <t>lgpc:0552 skos:broadMatch cofog:0530 .</t>
+  </si>
+  <si>
+    <t>lgpc:0553 skos:broadMatch cofog:0530 .</t>
+  </si>
+  <si>
+    <t>lgpc:0554 skos:broadMatch cofog:0530 .</t>
+  </si>
+  <si>
+    <t>lgpc:0555 skos:broadMatch cofog:0530 .</t>
+  </si>
+  <si>
+    <t>lgpc:0559 skos:broadMatch cofog:0530 .</t>
+  </si>
+  <si>
+    <t>lgpc:0590 skos:narrowMatch cofog:0530 .</t>
+  </si>
+  <si>
+    <t>lgpc:0590 skos:narrowMatch cofog:0550 .</t>
+  </si>
+  <si>
+    <t>lgpc:0590 skos:narrowMatch cofog:0560 .</t>
+  </si>
+  <si>
+    <t>lgpc:06 skos:exactMatch cofog:06 .</t>
+  </si>
+  <si>
+    <t>lgpc:0610 skos:narrowMatch cofog:0610 .</t>
+  </si>
+  <si>
+    <t>lgpc:0610 skos:narrowMatch cofog:1060 .</t>
+  </si>
+  <si>
+    <t>lgpc:0620 skos:exactMatch cofog:0620 .</t>
+  </si>
+  <si>
+    <t>lgpc:0630 skos:exactMatch cofog:0630 .</t>
+  </si>
+  <si>
+    <t>lgpc:0640 skos:exactMatch cofog:0640 .</t>
+  </si>
+  <si>
+    <t>lgpc:0690 skos:narrowMatch cofog:0650 .</t>
+  </si>
+  <si>
+    <t>lgpc:0690 skos:narrowMatch cofog:0660 .</t>
+  </si>
+  <si>
+    <t>lgpc:07 skos:exactMatch cofog:07 .</t>
+  </si>
+  <si>
+    <t>lgpc:0710 skos:narrowMatch cofog:0721 .</t>
+  </si>
+  <si>
+    <t>lgpc:0710 skos:narrowMatch cofog:0722 .</t>
+  </si>
+  <si>
+    <t>lgpc:0710 skos:narrowMatch cofog:0723 .</t>
+  </si>
+  <si>
+    <t>lgpc:0710 skos:narrowMatch cofog:0724 .</t>
+  </si>
+  <si>
+    <t>lgpc:0720 skos:exactMatch cofog:0734 .</t>
+  </si>
+  <si>
+    <t>lgpc:0730 skos:exactMatch cofog:0740 .</t>
+  </si>
+  <si>
+    <t>lgpc:0790 skos:narrowMatch cofog:0711 .</t>
+  </si>
+  <si>
+    <t>lgpc:0790 skos:narrowMatch cofog:0712 .</t>
+  </si>
+  <si>
+    <t>lgpc:0790 skos:narrowMatch cofog:0713 .</t>
+  </si>
+  <si>
+    <t>lgpc:0790 skos:narrowMatch cofog:0731 .</t>
+  </si>
+  <si>
+    <t>lgpc:0790 skos:narrowMatch cofog:0732 .</t>
+  </si>
+  <si>
+    <t>lgpc:0790 skos:narrowMatch cofog:0733 .</t>
+  </si>
+  <si>
+    <t>lgpc:0790 skos:narrowMatch cofog:0750 .</t>
+  </si>
+  <si>
+    <t>lgpc:0790 skos:narrowMatch cofog:0760 .</t>
+  </si>
+  <si>
+    <t>lgpc:08 skos:exactMatch cofog:08 .</t>
+  </si>
+  <si>
+    <t>lgpc:0811 skos:broadMatch cofog:0810 .</t>
+  </si>
+  <si>
+    <t>lgpc:0812 skos:broadMatch cofog:0810 .</t>
+  </si>
+  <si>
+    <t>lgpc:0813 skos:broadMatch cofog:0810 .</t>
+  </si>
+  <si>
+    <t>lgpc:0814 skos:broadMatch cofog:0810 .</t>
+  </si>
+  <si>
+    <t>lgpc:0815 skos:broadMatch cofog:0810 .</t>
+  </si>
+  <si>
+    <t>lgpc:0816 skos:broadMatch cofog:0810 .</t>
+  </si>
+  <si>
+    <t>lgpc:0819 skos:broadMatch cofog:0810 .</t>
+  </si>
+  <si>
+    <t>lgpc:0821 skos:broadMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0822 skos:broadMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0823 skos:broadMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0824 skos:broadMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0825 skos:broadMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0826 skos:broadMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0827 skos:broadMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0828 skos:broadMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0829 skos:broadMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0829 skos:narrowMatch cofog:0830 .</t>
+  </si>
+  <si>
+    <t>lgpc:0830 skos:narrowMatch cofog:0840 .</t>
+  </si>
+  <si>
+    <t>lgpc:0840 skos:narrowMatch cofog:0860 .</t>
+  </si>
+  <si>
+    <t>lgpc:0890 skos:narrowMatch cofog:0820 .</t>
+  </si>
+  <si>
+    <t>lgpc:0890 skos:narrowMatch cofog:0840 .</t>
+  </si>
+  <si>
+    <t>lgpc:0890 skos:narrowMatch cofog:0850 .</t>
+  </si>
+  <si>
+    <t>lgpc:0890 skos:narrowMatch cofog:0860 .</t>
+  </si>
+  <si>
+    <t>lgpc:09 skos:exactMatch cofog:09 .</t>
+  </si>
+  <si>
+    <t>lgpc:0910 skos:exactMatch cofog:0911 .</t>
+  </si>
+  <si>
+    <t>lgpc:0990 skos:narrowMatch cofog:0950 .</t>
+  </si>
+  <si>
+    <t>lgpc:0990 skos:narrowMatch cofog:0970 .</t>
+  </si>
+  <si>
+    <t>lgpc:0990 skos:narrowMatch cofog:0980 .</t>
+  </si>
+  <si>
+    <t>lgpc:10 skos:exactMatch cofog:10 .</t>
+  </si>
+  <si>
+    <t>lgpc:1011 skos:broadMatch cofog:1040 .</t>
+  </si>
+  <si>
+    <t>lgpc:1012 skos:broadMatch cofog:1040 .</t>
+  </si>
+  <si>
+    <t>lgpc:1019 skos:broadMatch cofog:1040 .</t>
+  </si>
+  <si>
+    <t>lgpc:1021 skos:broadMatch cofog:1020 .</t>
+  </si>
+  <si>
+    <t>lgpc:1029 skos:broadMatch cofog:1020 .</t>
+  </si>
+  <si>
+    <t>lgpc:1031 skos:broadMatch cofog:1012 .</t>
+  </si>
+  <si>
+    <t>lgpc:1039 skos:broadMatch cofog:1012 .</t>
+  </si>
+  <si>
+    <t>lgpc:1091 skos:narrowMatch cofog:1090 .</t>
+  </si>
+  <si>
+    <t>lgpc:1099 skos:narrowMatch cofog:1011 .</t>
+  </si>
+  <si>
+    <t>lgpc:1099 skos:narrowMatch cofog:1030 .</t>
+  </si>
+  <si>
+    <t>lgpc:1099 skos:narrowMatch cofog:1050 .</t>
+  </si>
+  <si>
+    <t>lgpc:1099 skos:narrowMatch cofog:1070 .</t>
+  </si>
+  <si>
+    <t>lgpc:1099 skos:narrowMatch cofog:1080 .</t>
+  </si>
+  <si>
+    <t>lgpc:1099 skos:narrowMatch cofog:1090 .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -626,8 +1095,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +1118,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -669,12 +1150,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,8 +1173,12 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -1007,230 +1493,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80EF797-5403-A447-9A37-82031F490E47}">
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B157" sqref="A157:B157"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("lgpc:",A2, " ",C2," cofog:",B2," .")</f>
+        <v>lgpc:01 skos:exactMatch cofog:01 .</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D66" si="0">CONCATENATE("lgpc:",A4, " ",C4," cofog:",B4," .")</f>
+        <v>lgpc:0111 skos:exactMatch cofog:0111 .</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0112 skos:exactMatch cofog:0112 .</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0120 skos:exactMatch cofog:0170 .</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0130 skos:exactMatch cofog:0180 .</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0190 skos:narrowMatch cofog:0131 .</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0190 skos:narrowMatch cofog:0132 .</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0190 skos:narrowMatch cofog:0133 .</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0190 skos:narrowMatch cofog:0140 .</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0190 skos:narrowMatch cofog:0150 .</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0190 skos:narrowMatch cofog:0160 .</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:03 skos:exactMatch cofog:03 .</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0310 skos:exactMatch cofog:0320 .</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:032 skos:narrowMatch cofog:0360 .</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0390 skos:narrowMatch cofog:0350 .</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="C25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0390 skos:narrowMatch cofog:0360 .</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:04 skos:exactMatch cofog:04 .</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0411 skos:exactMatch cofog:0411 .</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0412 skos:exactMatch cofog:0412 .</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0421 skos:broadMatch cofog:0421 .</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0422 skos:broadMatch cofog:0421 .</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -1238,20 +1884,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0431 skos:narrowMatch cofog:0432 .</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -1259,961 +1912,2616 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0439 skos:narrowMatch cofog:0431 .</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0439 skos:narrowMatch cofog:0432 .</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0439 skos:narrowMatch cofog:0433 .</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0439 skos:narrowMatch cofog:0434 .</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0439 skos:narrowMatch cofog:0436 .</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0441 skos:broadMatch cofog:0451 .</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0442 skos:broadMatch cofog:0451 .</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0443 skos:broadMatch cofog:0451 .</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0444 skos:broadMatch cofog:0451 .</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0445 skos:broadMatch cofog:0451 .</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0446 skos:broadMatch cofog:0451 .</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0449 skos:broadMatch cofog:0451 .</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0451 skos:exactMatch cofog:0452 .</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0452 skos:exactMatch cofog:0454 .</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0459 skos:narrowMatch cofog:0453 .</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0459 skos:narrowMatch cofog:0455 .</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0461 skos:exactMatch cofog:0441 .</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0462 skos:exactMatch cofog:0443 .</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0463 skos:exactMatch cofog:0471 .</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0464 skos:exactMatch cofog:0473 .</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0465 skos:exactMatch cofog:0474 .</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0469 skos:narrowMatch cofog:0423 .</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0469 skos:narrowMatch cofog:0442 .</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0469 skos:narrowMatch cofog:0460 .</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>lgpc:0469 skos:narrowMatch cofog:0472 .</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D130" si="1">CONCATENATE("lgpc:",A68, " ",C68," cofog:",B68," .")</f>
+        <v>lgpc:0490 skos:narrowMatch cofog:0481 .</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0490 skos:narrowMatch cofog:0482 .</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0490 skos:narrowMatch cofog:0483 .</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0490 skos:narrowMatch cofog:0484 .</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0490 skos:narrowMatch cofog:0485 .</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0490 skos:narrowMatch cofog:0486 .</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0490 skos:narrowMatch cofog:0487 .</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="C75" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0490 skos:narrowMatch cofog:0490 .</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:05 skos:exactMatch cofog:05 .</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0511 skos:broadMatch cofog:0510 .</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0519 skos:broadMatch cofog:0510 .</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0521 skos:broadMatch cofog:0520 .</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0529 skos:broadMatch cofog:0520 .</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0530 skos:broadMatch cofog:0530 .</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0540 skos:exactMatch cofog:0540 .</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0551 skos:broadMatch cofog:0530 .</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0552 skos:broadMatch cofog:0530 .</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0553 skos:broadMatch cofog:0530 .</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0554 skos:broadMatch cofog:0530 .</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0555 skos:broadMatch cofog:0530 .</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0559 skos:broadMatch cofog:0530 .</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0590 skos:narrowMatch cofog:0530 .</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0590 skos:narrowMatch cofog:0550 .</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="C98" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0590 skos:narrowMatch cofog:0560 .</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:06 skos:exactMatch cofog:06 .</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0610 skos:narrowMatch cofog:0610 .</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0610 skos:narrowMatch cofog:1060 .</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0620 skos:exactMatch cofog:0620 .</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0630 skos:exactMatch cofog:0630 .</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0640 skos:exactMatch cofog:0640 .</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0690 skos:narrowMatch cofog:0650 .</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="C112" t="s">
+        <v>205</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0690 skos:narrowMatch cofog:0660 .</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:07 skos:exactMatch cofog:07 .</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>205</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0710 skos:narrowMatch cofog:0721 .</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>205</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0710 skos:narrowMatch cofog:0722 .</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0710 skos:narrowMatch cofog:0723 .</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0710 skos:narrowMatch cofog:0724 .</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0720 skos:exactMatch cofog:0734 .</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>204</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0730 skos:exactMatch cofog:0740 .</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>205</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0790 skos:narrowMatch cofog:0711 .</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0790 skos:narrowMatch cofog:0712 .</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0790 skos:narrowMatch cofog:0713 .</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>205</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0790 skos:narrowMatch cofog:0731 .</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0790 skos:narrowMatch cofog:0732 .</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>lgpc:0790 skos:narrowMatch cofog:0733 .</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>205</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D192" si="2">CONCATENATE("lgpc:",A131, " ",C131," cofog:",B131," .")</f>
+        <v>lgpc:0790 skos:narrowMatch cofog:0750 .</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+      <c r="C132" t="s">
+        <v>205</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0790 skos:narrowMatch cofog:0760 .</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:08 skos:exactMatch cofog:08 .</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>206</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0811 skos:broadMatch cofog:0810 .</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0812 skos:broadMatch cofog:0810 .</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>206</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0813 skos:broadMatch cofog:0810 .</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>206</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0814 skos:broadMatch cofog:0810 .</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>206</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0815 skos:broadMatch cofog:0810 .</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>206</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0816 skos:broadMatch cofog:0810 .</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>206</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0819 skos:broadMatch cofog:0810 .</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>206</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0821 skos:broadMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0822 skos:broadMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>206</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0823 skos:broadMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>206</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0824 skos:broadMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>206</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0825 skos:broadMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>206</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0826 skos:broadMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>206</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0827 skos:broadMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>206</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0828 skos:broadMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0829 skos:broadMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>205</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0829 skos:narrowMatch cofog:0830 .</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>205</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0830 skos:narrowMatch cofog:0840 .</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>205</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0840 skos:narrowMatch cofog:0860 .</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+      <c r="B159" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C159" t="s">
+        <v>205</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0890 skos:narrowMatch cofog:0820 .</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C160" t="s">
+        <v>205</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0890 skos:narrowMatch cofog:0840 .</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C161" t="s">
+        <v>205</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0890 skos:narrowMatch cofog:0850 .</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" t="s">
+        <v>205</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0890 skos:narrowMatch cofog:0860 .</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+      <c r="B164" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C164" t="s">
+        <v>204</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:09 skos:exactMatch cofog:09 .</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="B166" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C166" t="s">
+        <v>204</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0910 skos:exactMatch cofog:0911 .</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="B170" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C170" t="s">
+        <v>205</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0990 skos:narrowMatch cofog:0950 .</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C171" t="s">
+        <v>205</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0990 skos:narrowMatch cofog:0970 .</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C172" t="s">
+        <v>205</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:0990 skos:narrowMatch cofog:0980 .</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="B174" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C174" t="s">
+        <v>204</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:10 skos:exactMatch cofog:10 .</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="B176" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" t="s">
+        <v>206</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1011 skos:broadMatch cofog:1040 .</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="B177" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C177" t="s">
+        <v>206</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1012 skos:broadMatch cofog:1040 .</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="B178" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" t="s">
+        <v>206</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1019 skos:broadMatch cofog:1040 .</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="B180" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C180" t="s">
+        <v>206</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1021 skos:broadMatch cofog:1020 .</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="B181" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C181" t="s">
+        <v>206</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1029 skos:broadMatch cofog:1020 .</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="B183" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C183" t="s">
+        <v>206</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1031 skos:broadMatch cofog:1012 .</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+      <c r="B184" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C184" t="s">
+        <v>206</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1039 skos:broadMatch cofog:1012 .</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+      <c r="B186" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C186" t="s">
+        <v>205</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1091 skos:narrowMatch cofog:1090 .</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
         <v>134</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C187" t="s">
+        <v>205</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1099 skos:narrowMatch cofog:1011 .</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C188" t="s">
+        <v>205</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1099 skos:narrowMatch cofog:1030 .</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C189" t="s">
+        <v>205</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1099 skos:narrowMatch cofog:1050 .</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C190" t="s">
+        <v>205</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1099 skos:narrowMatch cofog:1070 .</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C191" t="s">
+        <v>205</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1099 skos:narrowMatch cofog:1080 .</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C192" t="s">
+        <v>205</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>lgpc:1099 skos:narrowMatch cofog:1090 .</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E4E45-0F09-E644-A110-6DFD75F7B55A}">
+  <dimension ref="A1:A138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A191">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>